--- a/exports/category_perf.xlsx
+++ b/exports/category_perf.xlsx
@@ -2,31 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misnm\omnicart-analytics\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C12649C-79C5-492E-A0B0-EB2595B48543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA5C39D-135E-436C-9335-BF84F374D4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{51E87D6F-71C8-438F-9B41-18DAD1BC8777}"/>
   </bookViews>
   <sheets>
     <sheet name="category_perf" sheetId="1" r:id="rId1"/>
     <sheet name="category_perf_pivot" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_category">#N/A</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="37">
   <si>
     <t>category</t>
   </si>
@@ -145,6 +146,9 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -655,7 +659,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -667,6 +671,8 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -750,23 +756,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:rPr lang="en-IN"/>
               <a:t>Category Revenue Trend (Monthly)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -783,13 +793,18 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -831,13 +846,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -887,13 +907,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -943,13 +968,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -999,13 +1029,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -1055,13 +1090,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -1111,13 +1151,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -1167,13 +1212,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -1223,13 +1273,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -2623,23 +2678,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                    <a:ln w="0"/>
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:schemeClr val="dk1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:outerShdw>
+                    </a:effectLst>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:rPr lang="en-IN"/>
                   <a:t>month</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2656,13 +2715,18 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                  <a:ln w="0"/>
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                      <a:schemeClr val="dk1">
+                        <a:alpha val="40000"/>
+                      </a:schemeClr>
+                    </a:outerShdw>
+                  </a:effectLst>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -2694,13 +2758,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2753,13 +2822,18 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:ln w="0"/>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="dk1">
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2772,6 +2846,937 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" cap="none" spc="0">
+          <a:ln w="0"/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:effectLst>
+            <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+              <a:schemeClr val="dk1">
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[category_perf.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Revenue Split by </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Category (Last Month)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23906616936040889"/>
+          <c:y val="2.8372742067035439E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Beauty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Books</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fashion</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grocery</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Home</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sports</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Toys</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.2612132925563007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9915888693643746E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53899754586168469</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8686269755055708E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7947471451356202E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1669183104137405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10611518636740498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.880719453155097E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A079-4715-8C9E-4E50CCDD3A50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2878,6 +3883,43 @@
   <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -3416,6 +4458,508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3535,8 +5079,45 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FAEA35-EEC0-DA08-4983-4713040DD40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4399,7 +5980,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6EB09E7-7F70-420C-9A9C-4F2F57ED65F3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Month">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F6EB09E7-7F70-420C-9A9C-4F2F57ED65F3}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Month">
   <location ref="A3:J25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -4751,10 +6332,602 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{013AFD13-75D7-4453-B3AA-C752C6EC3D61}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15" rowHeaderCaption="Category">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="21">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of revenue" fld="2" baseField="0" baseItem="0" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField pivotShowAs="percentOfParentRow"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <chartFormats count="41">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_category" xr10:uid="{638E7F0A-F7AC-4235-A217-B342DB5D0AAD}" sourceName="category">
   <pivotTables>
     <pivotTable tabId="2" name="PivotTable1"/>
+    <pivotTable tabId="3" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1749273190">
@@ -6922,7 +9095,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6991,31 +9164,31 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>1566909.45</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>489284.14</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>13870473.869999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>986837.51</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>519366.38</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>4116422.86</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>2714560.34</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>1480883.06</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>25744737.609999996</v>
       </c>
     </row>
@@ -7023,31 +9196,31 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>1100344.8799999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>496830.39</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>12796546.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>862763.77</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>397313.55</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>3728969.62</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>2085296</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>1410170.83</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>22878235.539999999</v>
       </c>
     </row>
@@ -7055,31 +9228,31 @@
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>1368708.21</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>396595.24</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>13368282.91</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>1026044.37</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>451341.41</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>4069404.61</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>2563843.5299999998</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>1450142.33</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>24694362.609999999</v>
       </c>
     </row>
@@ -7087,31 +9260,31 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>1146740.6399999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>526857.06000000006</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>13186689.24</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>972302.53</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>438966.88</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>4289673.5999999996</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>2456562.2999999998</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>1348036.61</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>24365828.859999999</v>
       </c>
     </row>
@@ -7119,31 +9292,31 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>1424406.9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>511454.04</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>14011832.6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>917057.87</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>473694.99</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>4000043.62</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>3063621.75</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>1357398.78</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>25759510.550000001</v>
       </c>
     </row>
@@ -7151,31 +9324,31 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>1424441.76</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>492046.12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>12626357.4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>941023.13</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>433706.37</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>3452395.77</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>2409320.48</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>1381110.48</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>23160401.510000002</v>
       </c>
     </row>
@@ -7183,31 +9356,31 @@
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>1194720.6499999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>484415.9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>13731640.43</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>897994.87</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>467066.24</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>4161560.85</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>2946294.18</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>1407236.79</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>25290929.91</v>
       </c>
     </row>
@@ -7215,31 +9388,31 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>1260178.1599999999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>488009.94</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>13878159.83</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>984512.48</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>477676.67</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>4950391.5599999996</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>2601468.41</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>1619763.87</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>26260160.920000002</v>
       </c>
     </row>
@@ -7247,31 +9420,31 @@
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>1069529.21</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>391062.61</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>13733906.82</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>1040306.27</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>415248.18</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>4234422.87</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>2850993.05</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>1472335.82</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>25207804.830000002</v>
       </c>
     </row>
@@ -7279,31 +9452,31 @@
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>1330713.01</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>580439.02</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>16094270.59</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>1125566.3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>498297.23</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>4340846.3600000003</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>3234374.14</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>1573113.39</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>28777620.040000003</v>
       </c>
     </row>
@@ -7311,31 +9484,31 @@
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>1585056.35</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>561318.14</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>15055883.210000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>1068159.24</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>547732.72</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>5060846.7300000004</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>2730853.25</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>1776244.67</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <v>28386094.310000002</v>
       </c>
     </row>
@@ -7343,31 +9516,31 @@
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>1316020.21</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>492119.85</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>12385551.630000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>946527.94</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>423246.13</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>4276059.26</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>2788203.56</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>1533277.11</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <v>24161005.690000001</v>
       </c>
     </row>
@@ -7375,31 +9548,31 @@
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>1562040.82</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>500456.23</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>15765467.939999999</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>1085694.6599999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>523337.23</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>4392515.33</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>3067477.24</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>1661657.47</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <v>28558646.920000002</v>
       </c>
     </row>
@@ -7407,31 +9580,31 @@
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>1323821.6100000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>448764.43</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>12547765.890000001</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>672267.71</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>356433.45</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>3815337.18</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>2186173.2000000002</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>1365426.2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <v>22715989.669999998</v>
       </c>
     </row>
@@ -7439,31 +9612,31 @@
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>1304941.82</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>528028.27</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>12331663.060000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>937281.05</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>430380.22</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>4042943.73</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>2386378.37</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <v>1137819.08</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5">
         <v>23099435.600000001</v>
       </c>
     </row>
@@ -7471,31 +9644,31 @@
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>1014014.28</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>489482.23999999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>11912813.369999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>877211.94</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>362567.23</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>3469108.51</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>2381374.3199999998</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>1355570.22</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <v>21862142.109999999</v>
       </c>
     </row>
@@ -7503,31 +9676,31 @@
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>1416790.4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>581661.55000000005</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>14505895.93</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>1106741.1000000001</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>427259.4</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>5049330.57</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>3161782.96</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>1549266.15</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <v>27798728.059999999</v>
       </c>
     </row>
@@ -7535,31 +9708,31 @@
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>1418618.16</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>454180.92</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>13931074.619999999</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>923735.7</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>463659.23</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="5">
         <v>4222120.47</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="5">
         <v>2474410.0099999998</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="5">
         <v>1610205.45</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <v>25498004.559999999</v>
       </c>
     </row>
@@ -7567,31 +9740,31 @@
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>1272209.17</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>543615.79</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>11590007.32</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>1000113.12</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>468368.01</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>3696362.16</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>2739459.38</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="5">
         <v>1556955.68</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5">
         <v>22867090.629999999</v>
       </c>
     </row>
@@ -7599,31 +9772,31 @@
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>585436.44999999995</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>266465.96000000002</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>5818404.7999999998</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>514788.61</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>186430.1</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="5">
         <v>2122028.87</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>963791.96</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="5">
         <v>663504.18999999994</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5">
         <v>11120850.939999999</v>
       </c>
     </row>
@@ -7631,31 +9804,31 @@
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>25685642.139999997</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>9723087.8399999999</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>263142687.96000004</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>18886930.169999998</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>8762091.620000001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <v>81490784.530000001</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>51806238.43</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="5">
         <v>28710118.18</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="5">
         <v>488207580.87000006</v>
       </c>
     </row>
@@ -7673,4 +9846,126 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4584DF1B-8E99-41B0-89C6-659135A6EA0C}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5.2612132925563007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.9915888693643746E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.53899754586168469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3.8686269755055708E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1.7947471451356202E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.1669183104137405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.10611518636740498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5.880719453155097E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>